--- a/cropped_and_labeled_image_data/2020_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2020_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,4076 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F2_P14_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P14_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F3_P17_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P17_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F4_P20_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P20_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F5_P22_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F5_P22_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>mixed statistical plot (more than 1 statistical plot type)</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F6_P23_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F6_P23_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F7_P22_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F7_P22_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>mixed statistical plot (more than 1 statistical plot type)</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F1_P12_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P12_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>data map</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F2_P12_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P12_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>heatmap</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F3_P15_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P15_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F4_P23_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P23_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F5_P24_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F5_P24_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F2_P10_Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P10_Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F3_P11_Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P11_Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F4_P13_Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P13_Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bhatt_2020_J Management Studies _How do Intermediaries Build Inclusive Markets  The Role of the Social Context.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F1_P11_Bhatt_2020_J Management Studies _How do Intermediaries Build Inclusive Markets  The Role of the Social Context.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P11_Bhatt_2020_J Management Studies _How do Intermediaries Build Inclusive Markets  The Role of the Social Context.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bhatt_2020_J Management Studies _How do Intermediaries Build Inclusive Markets  The Role of the Social Context.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F2_P14_Bhatt_2020_J Management Studies _How do Intermediaries Build Inclusive Markets  The Role of the Social Context.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P14_Bhatt_2020_J Management Studies _How do Intermediaries Build Inclusive Markets  The Role of the Social Context.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bhatt_2020_J Management Studies _How do Intermediaries Build Inclusive Markets  The Role of the Social Context.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F3_P24_Bhatt_2020_J Management Studies _How do Intermediaries Build Inclusive Markets  The Role of the Social Context.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P24_Bhatt_2020_J Management Studies _How do Intermediaries Build Inclusive Markets  The Role of the Social Context.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Breuer et al._2020_HR_Trust in Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F1_P19_Breuer et al._2020_HR_Trust in Teams.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P19_Breuer et al._2020_HR_Trust in Teams.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F1_P7_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P7_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F2_P8_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P8_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F3_P10_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P10_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F8_P22_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F8_P22_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chliova, Mair &amp; Vernis_2020_OrgStudies_Persistent Category Ambiguity - The case of social entrepreneurship.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F1_P17_Chliova, Mair &amp; Vernis_2020_OrgStudies_Persistent Category Ambiguity - The case of social entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E24" t="n">
+        <v>18</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P17_Chliova, Mair &amp; Vernis_2020_OrgStudies_Persistent Category Ambiguity - The case of social entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F2_P8_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P8_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F3_P9_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P9_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F4_P13_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P13_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Coslor, Crawford &amp; Leyshon_2020_OrgStudies_Collectors, Investors and Speculators - Gatekeeper use of Audience Categories in the Art Market.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F2_P18_Coslor, Crawford &amp; Leyshon_2020_OrgStudies_Collectors, Investors and Speculators - Gatekeeper use of Audience Categories in the Art Market.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E28" t="n">
+        <v>19</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P18_Coslor, Crawford &amp; Leyshon_2020_OrgStudies_Collectors, Investors and Speculators - Gatekeeper use of Audience Categories in the Art Market.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DiBenigno_2020_ASQ_Rapid Relationality - How Peripheral Experts Build a Foundation for Influence with Line Managers.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F1_P13_DiBenigno_2020_ASQ_Rapid Relationality - How Peripheral Experts Build a Foundation for Influence with Line Managers.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P13_DiBenigno_2020_ASQ_Rapid Relationality - How Peripheral Experts Build a Foundation for Influence with Line Managers.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fairhurst et al._2020_HR_Studying Collective Leadership the Road Ahead.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F2_P4_Fairhurst et al._2020_HR_Studying Collective Leadership the Road Ahead.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P4_Fairhurst et al._2020_HR_Studying Collective Leadership the Road Ahead.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ganzin, Islam &amp; Suddaby_2020_OrgStudies_Spirituality and Entrepreneurship - the role of magical thinking in future oriented sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F2_P19_Ganzin, Islam &amp; Suddaby_2020_OrgStudies_Spirituality and Entrepreneurship - the role of magical thinking in future oriented sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P19_Ganzin, Islam &amp; Suddaby_2020_OrgStudies_Spirituality and Entrepreneurship - the role of magical thinking in future oriented sensemaking.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gonsalves_2020_ASQ_From Frace Time to Flex Time.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F2_P23_Gonsalves_2020_ASQ_From Frace Time to Flex Time.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E32" t="n">
+        <v>24</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P23_Gonsalves_2020_ASQ_From Frace Time to Flex Time.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Gorbatai, Dioun &amp; Lashley_2020_OrgSci_Making Space for Emotions.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F1_P17_Gorbatai, Dioun &amp; Lashley_2020_OrgSci_Making Space for Emotions.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E33" t="n">
+        <v>18</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P17_Gorbatai, Dioun &amp; Lashley_2020_OrgSci_Making Space for Emotions.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F1_P2_Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P2_Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F2_P13_Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.png</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P13_Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>F2_P10_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P10_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>F3_P24_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E37" t="n">
+        <v>25</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P24_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>F4_P25_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E38" t="n">
+        <v>26</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P25_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>F2_P9_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P9_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>F1_P5_Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.png</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P5_Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>F2_P11_Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.png</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P11_Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>F3_P14_Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.png</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P14_Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>F2_P8_Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.png</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P8_Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>F3_P12_Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.png</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E44" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P12_Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>F2_P17_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E45" t="n">
+        <v>18</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P17_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>F3_P20_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P20_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>F4_P21_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E47" t="n">
+        <v>22</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P21_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>F5_P25_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E48" t="n">
+        <v>26</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F5_P25_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>F2_P15_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P15_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>F3_P24_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E50" t="n">
+        <v>25</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P24_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>F4_P25_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E51" t="n">
+        <v>26</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P25_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>F2_P20_Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E52" t="n">
+        <v>21</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P20_Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>F3_P21_Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E53" t="n">
+        <v>22</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P21_Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>F1_P6_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P6_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>F2_P12_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P12_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>F2_P13_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P13_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>F3_P14_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E57" t="n">
+        <v>15</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P14_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>F4_P19_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E58" t="n">
+        <v>20</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P19_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>McDonald &amp; Eisenhardt_2020_ASQ_Parallel Play - Startups, Nascent Markets and Effective Business Model Design.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>F1_P29_McDonald &amp; Eisenhardt_2020_ASQ_Parallel Play - Startups, Nascent Markets and Effective Business Model Design.png</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E59" t="n">
+        <v>30</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P29_McDonald &amp; Eisenhardt_2020_ASQ_Parallel Play - Startups, Nascent Markets and Effective Business Model Design.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Montgomery &amp; Dacin_2020_AMJ_Water Wars in Detroit.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>F2_P14_Montgomery &amp; Dacin_2020_AMJ_Water Wars in Detroit.png</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E60" t="n">
+        <v>15</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P14_Montgomery &amp; Dacin_2020_AMJ_Water Wars in Detroit.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Montgomery_2020_J Management Studies _The Millennial  Meh   Correlated Groups as Collective Agents in the Automobile.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>F1_P32_Montgomery_2020_J Management Studies _The Millennial  Meh   Correlated Groups as Collective Agents in the Automobile.png</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E61" t="n">
+        <v>33</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P32_Montgomery_2020_J Management Studies _The Millennial  Meh   Correlated Groups as Collective Agents in the Automobile.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Muller_2020_OrgStudies_Escaping into the night - organizations and work at night.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>F2_P15_Muller_2020_OrgStudies_Escaping into the night - organizations and work at night.png</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E62" t="n">
+        <v>16</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P15_Muller_2020_OrgStudies_Escaping into the night - organizations and work at night.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Padavic et al._2020_ASQ_Explaining the Persistence of Gender Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>F2_P35_Padavic et al._2020_ASQ_Explaining the Persistence of Gender Inequality.png</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E63" t="n">
+        <v>36</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P35_Padavic et al._2020_ASQ_Explaining the Persistence of Gender Inequality.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>F1_P5_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P5_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>data map</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>F2_P6_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P6_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>F2_P11_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P11_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>F2_P14_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E67" t="n">
+        <v>15</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P14_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>F3_P11_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P11_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>F5_P16_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E69" t="n">
+        <v>17</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F5_P16_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>F2_P13_Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.png</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E70" t="n">
+        <v>14</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P13_Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.pdf</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>F3_P19_Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.png</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E71" t="n">
+        <v>20</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P19_Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ramarajan &amp; Reid_2020_AMJ_Relational Reconciliation Socializing Others Across Demographic Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>F2_P20_Ramarajan &amp; Reid_2020_AMJ_Relational Reconciliation Socializing Others Across Demographic Differences.png</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E72" t="n">
+        <v>21</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P20_Ramarajan &amp; Reid_2020_AMJ_Relational Reconciliation Socializing Others Across Demographic Differences.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.pdf</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>F2_P14_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E73" t="n">
+        <v>15</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P14_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.pdf</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>F3_P18_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E74" t="n">
+        <v>19</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P18_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>F4_P25_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E75" t="n">
+        <v>26</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P25_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Schinoff, Ashforth &amp; Corley_2020_AMJ_Virtually InSeparable The Centrality of Relational Cadence in the Formation of Virtual Multiplex Relationships.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>F2_P8_Schinoff, Ashforth &amp; Corley_2020_AMJ_Virtually InSeparable The Centrality of Relational Cadence in the Formation of Virtual Multiplex Relationships.png</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P8_Schinoff, Ashforth &amp; Corley_2020_AMJ_Virtually InSeparable The Centrality of Relational Cadence in the Formation of Virtual Multiplex Relationships.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Shantz et al._2020_AMJ_How Formal and Informal Hierachies Shape Conflict within Cooperatives.pdf</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>F2_P14_Shantz et al._2020_AMJ_How Formal and Informal Hierachies Shape Conflict within Cooperatives.png</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P14_Shantz et al._2020_AMJ_How Formal and Informal Hierachies Shape Conflict within Cooperatives.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>F1_P10_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E78" t="n">
+        <v>11</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P10_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>F2_P11_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E79" t="n">
+        <v>12</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P11_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.pdf</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>F2_P12_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E80" t="n">
+        <v>13</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P12_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>F3_P17_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E81" t="n">
+        <v>18</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P17_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>F1_P9_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P9_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>F2_P19_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E83" t="n">
+        <v>20</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P19_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.pdf</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>F3_P21_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E84" t="n">
+        <v>22</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P21_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>F4_P22_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E85" t="n">
+        <v>23</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P22_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.pdf</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>F5_P23_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E86" t="n">
+        <v>24</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F5_P23_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>F6_P23_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E87" t="n">
+        <v>24</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F6_P23_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>F2_P10_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P10_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>F3_P24_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E89" t="n">
+        <v>25</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P24_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>F4_P25_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E90" t="n">
+        <v>26</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P25_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>F2_P23_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E91" t="n">
+        <v>24</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P23_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>F3_P26_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E92" t="n">
+        <v>27</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P26_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>F4_P30_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E93" t="n">
+        <v>31</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P30_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sundermeier _2020_ J Management Studies _Hubristic Start‐up Founders   The Neglected Bright and Inevitable Dark.pdf</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>F2_P11_Sundermeier _2020_ J Management Studies _Hubristic Start‐up Founders   The Neglected Bright and Inevitable Dark.png</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E94" t="n">
+        <v>12</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P11_Sundermeier _2020_ J Management Studies _Hubristic Start‐up Founders   The Neglected Bright and Inevitable Dark.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Vaast_2020_OrgStudies_A Seat at the Table and a Room of their Own - Interconnected processes of social media use at the intersection of gender and occupation.pdf</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>F1_P16_Vaast_2020_OrgStudies_A Seat at the Table and a Room of their Own - Interconnected processes of social media use at the intersection of gender and occupation.png</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E95" t="n">
+        <v>17</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P16_Vaast_2020_OrgStudies_A Seat at the Table and a Room of their Own - Interconnected processes of social media use at the intersection of gender and occupation.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Van Grinsven, Sturdy &amp; Heusinkveld_2020_OrgStudies_Identities in Translation - Management Concepts as Means and Outcomes of Identity Work.pdf</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>F2_P10_Van Grinsven, Sturdy &amp; Heusinkveld_2020_OrgStudies_Identities in Translation - Management Concepts as Means and Outcomes of Identity Work.png</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E96" t="n">
+        <v>11</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P10_Van Grinsven, Sturdy &amp; Heusinkveld_2020_OrgStudies_Identities in Translation - Management Concepts as Means and Outcomes of Identity Work.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Wei_2020_J Management Studies _Untangling the Integration Performance Link  Levels of Integration and Functional.pdf</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>F1_P16_Wei_2020_J Management Studies _Untangling the Integration Performance Link  Levels of Integration and Functional.png</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E97" t="n">
+        <v>17</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P16_Wei_2020_J Management Studies _Untangling the Integration Performance Link  Levels of Integration and Functional.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Wei_2020_J Management Studies _Untangling the Integration Performance Link  Levels of Integration and Functional.pdf</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>F2_P36_Wei_2020_J Management Studies _Untangling the Integration Performance Link  Levels of Integration and Functional.png</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E98" t="n">
+        <v>37</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P36_Wei_2020_J Management Studies _Untangling the Integration Performance Link  Levels of Integration and Functional.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Weiser_2020_J Management Studies _The Role of Substantive Actions in Sensemaking During Strategic Change.pdf</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>F1_P8_Weiser_2020_J Management Studies _The Role of Substantive Actions in Sensemaking During Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E99" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P8_Weiser_2020_J Management Studies _The Role of Substantive Actions in Sensemaking During Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Weiser_2020_J Management Studies _The Role of Substantive Actions in Sensemaking During Strategic Change.pdf</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>F2_P23_Weiser_2020_J Management Studies _The Role of Substantive Actions in Sensemaking During Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E100" t="n">
+        <v>24</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P23_Weiser_2020_J Management Studies _The Role of Substantive Actions in Sensemaking During Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.pdf</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>F1_P5_Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.png</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P5_Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.pdf</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>F2_P13_Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.png</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E102" t="n">
+        <v>14</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P13_Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.pdf</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>F3_P16_Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.png</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E103" t="n">
+        <v>17</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P16_Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.png</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Yan_2020_OrgSci_A Double Edged Sword.pdf</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>F2_P14_Yan_2020_OrgSci_A Double Edged Sword.png</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E104" t="n">
+        <v>15</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P14_Yan_2020_OrgSci_A Double Edged Sword.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Yan_2020_OrgSci_A Double Edged Sword.pdf</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>F3_P14_Yan_2020_OrgSci_A Double Edged Sword.png</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E105" t="n">
+        <v>15</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P14_Yan_2020_OrgSci_A Double Edged Sword.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Zhang et al._2020_AMJ_Playing it Safe for my Family.pdf</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>F2_P8_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P8_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Zhang et al._2020_AMJ_Playing it Safe for my Family.pdf</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>F3_P14_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E107" t="n">
+        <v>15</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P14_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Zhang et al._2020_AMJ_Playing it Safe for my Family.pdf</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>F4_P15_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E108" t="n">
+        <v>16</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P15_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Zhang et al._2020_AMJ_Playing it Safe for my Family.pdf</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>F5_P17_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E109" t="n">
+        <v>18</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F5_P17_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Zuzul &amp; Tripsas_2020_ASQ_Start-Up Intertia versus Flexibility - The Role of Founder Identity in a Nascent Industry.pdf</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>F2_P12_Zuzul &amp; Tripsas_2020_ASQ_Start-Up Intertia versus Flexibility - The Role of Founder Identity in a Nascent Industry.png</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E110" t="n">
+        <v>13</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P12_Zuzul &amp; Tripsas_2020_ASQ_Start-Up Intertia versus Flexibility - The Role of Founder Identity in a Nascent Industry.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Zhang et al._2020_AMJ_Playing it Safe for my Family.pdf</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>F1_P2_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P2_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2020_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2020_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4550,6 +4550,1005 @@
         <v>1</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.pdf</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>F1_P13_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E112" t="n">
+        <v>14</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P13_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.pdf</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>F1_P8_Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.png</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P8_Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Claes &amp; Vissa_2020_OrgSci_Does Social Similary Pay Off.pdf</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>F1_P21_Claes &amp; Vissa_2020_OrgSci_Does Social Similary Pay Off.png</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E114" t="n">
+        <v>22</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P21_Claes &amp; Vissa_2020_OrgSci_Does Social Similary Pay Off.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.pdf</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>F1_P7_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E115" t="n">
+        <v>8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P7_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Danbold &amp; Bendersky_2020_OrgSci_Balancing Professional Prototypes Increases the Valuation of Women in Male-Dominated Professions.pdf</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>F1_P16_Danbold &amp; Bendersky_2020_OrgSci_Balancing Professional Prototypes Increases the Valuation of Women in Male-Dominated Professions.png</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E116" t="n">
+        <v>17</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P16_Danbold &amp; Bendersky_2020_OrgSci_Balancing Professional Prototypes Increases the Valuation of Women in Male-Dominated Professions.png</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>scatter plot</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DeJordy et al._2020_ASQ_Inhabited Ecosystems - Propelling Transformative Social Change Between and Through Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>F1_P18_DeJordy et al._2020_ASQ_Inhabited Ecosystems - Propelling Transformative Social Change Between and Through Organizations.png</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E117" t="n">
+        <v>19</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P18_DeJordy et al._2020_ASQ_Inhabited Ecosystems - Propelling Transformative Social Change Between and Through Organizations.png</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fairhurst et al._2020_HR_Studying Collective Leadership the Road Ahead.pdf</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>F1_P3_Fairhurst et al._2020_HR_Studying Collective Leadership the Road Ahead.png</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P3_Fairhurst et al._2020_HR_Studying Collective Leadership the Road Ahead.png</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Gonsalves_2020_ASQ_From Frace Time to Flex Time.pdf</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>F1_P14_Gonsalves_2020_ASQ_From Frace Time to Flex Time.png</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E119" t="n">
+        <v>15</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P14_Gonsalves_2020_ASQ_From Frace Time to Flex Time.png</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.pdf</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>F1_P8_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P8_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.pdf</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>F1_P6_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P6_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.pdf</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>F1_P6_Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.png</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P6_Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.png</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Hengst et al._2020_AMJ_Toward a Process Theory of Sustainability Strategies Legitimate in Action.pdf</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>F1_P18_Hengst et al._2020_AMJ_Toward a Process Theory of Sustainability Strategies Legitimate in Action.png</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E123" t="n">
+        <v>19</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P18_Hengst et al._2020_AMJ_Toward a Process Theory of Sustainability Strategies Legitimate in Action.png</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>F1_P10_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P10_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>hierarchical diagram</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.pdf</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>F1_P13_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E125" t="n">
+        <v>14</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P13_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>F1_P5_Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P5_Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.png</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>organizational chart</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Mikkelsen_2020_J Management Studies _ Unconscious Processes of Organizing  Intergroup Conflict in Mental Health Care.pdf</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>F1_P21_Mikkelsen_2020_J Management Studies _ Unconscious Processes of Organizing  Intergroup Conflict in Mental Health Care.png</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E127" t="n">
+        <v>22</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P21_Mikkelsen_2020_J Management Studies _ Unconscious Processes of Organizing  Intergroup Conflict in Mental Health Care.png</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Montgomery &amp; Dacin_2020_AMJ_Water Wars in Detroit.pdf</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>F1_P8_Montgomery &amp; Dacin_2020_AMJ_Water Wars in Detroit.png</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P8_Montgomery &amp; Dacin_2020_AMJ_Water Wars in Detroit.png</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Padavic et al._2020_ASQ_Explaining the Persistence of Gender Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>F1_P34_Padavic et al._2020_ASQ_Explaining the Persistence of Gender Inequality.png</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E129" t="n">
+        <v>35</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P34_Padavic et al._2020_ASQ_Explaining the Persistence of Gender Inequality.png</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.pdf</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>F1_P10_Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.png</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E130" t="n">
+        <v>11</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P10_Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.png</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Ramarajan &amp; Reid_2020_AMJ_Relational Reconciliation Socializing Others Across Demographic Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>F1_P7_Ramarajan &amp; Reid_2020_AMJ_Relational Reconciliation Socializing Others Across Demographic Differences.png</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E131" t="n">
+        <v>8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P7_Ramarajan &amp; Reid_2020_AMJ_Relational Reconciliation Socializing Others Across Demographic Differences.png</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.pdf</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>F1_P9_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E132" t="n">
+        <v>10</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P9_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Schinoff, Ashforth &amp; Corley_2020_AMJ_Virtually InSeparable The Centrality of Relational Cadence in the Formation of Virtual Multiplex Relationships.pdf</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>F1_P5_Schinoff, Ashforth &amp; Corley_2020_AMJ_Virtually InSeparable The Centrality of Relational Cadence in the Formation of Virtual Multiplex Relationships.png</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P5_Schinoff, Ashforth &amp; Corley_2020_AMJ_Virtually InSeparable The Centrality of Relational Cadence in the Formation of Virtual Multiplex Relationships.png</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.pdf</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>F1_P8_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P8_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>F1_P18_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E135" t="n">
+        <v>19</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P18_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Sundermeier _2020_ J Management Studies _Hubristic Start‐up Founders   The Neglected Bright and Inevitable Dark.pdf</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>F1_P7_Sundermeier _2020_ J Management Studies _Hubristic Start‐up Founders   The Neglected Bright and Inevitable Dark.png</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E136" t="n">
+        <v>8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P7_Sundermeier _2020_ J Management Studies _Hubristic Start‐up Founders   The Neglected Bright and Inevitable Dark.png</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Yan_2020_OrgSci_A Double Edged Sword.pdf</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>F1_P13_Yan_2020_OrgSci_A Double Edged Sword.png</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P13_Yan_2020_OrgSci_A Double Edged Sword.png</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Zuzul &amp; Tripsas_2020_ASQ_Start-Up Intertia versus Flexibility - The Role of Founder Identity in a Nascent Industry.pdf</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>F1_P6_Zuzul &amp; Tripsas_2020_ASQ_Start-Up Intertia versus Flexibility - The Role of Founder Identity in a Nascent Industry.png</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E138" t="n">
+        <v>7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P6_Zuzul &amp; Tripsas_2020_ASQ_Start-Up Intertia versus Flexibility - The Role of Founder Identity in a Nascent Industry.png</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2020_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2020_cropped_and_labeled_figs.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>data collection, data analysis, data gathering diagrams</t>
         </is>
       </c>
       <c r="I68" t="b">

--- a/cropped_and_labeled_image_data/2020_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2020_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -510,11 +505,8 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -547,11 +539,8 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -584,11 +573,8 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -621,11 +607,8 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>mixed statistical plot (more than 1 statistical plot type)</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
+          <t>mixed statistical plot (more than 1 statistical plot and type)</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -658,11 +641,8 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -695,11 +675,8 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>mixed statistical plot (more than 1 statistical plot type)</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
+          <t>mixed statistical plot (more than 1 statistical plot and type)</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -735,9 +712,6 @@
           <t>data map</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,9 +746,6 @@
           <t>heatmap</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -806,11 +777,8 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -843,11 +811,8 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -883,9 +848,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -917,11 +879,8 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -954,11 +913,8 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -991,11 +947,8 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1031,9 +984,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1068,9 +1018,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1105,9 +1052,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1139,11 +1083,8 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1179,9 +1120,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1216,9 +1154,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1253,9 +1188,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1287,11 +1219,8 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>process diagram</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1327,9 +1256,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1361,11 +1287,8 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1401,9 +1324,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1438,9 +1358,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1475,9 +1392,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1512,9 +1426,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1546,11 +1457,8 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1586,9 +1494,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1623,9 +1528,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1660,9 +1562,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1697,9 +1596,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1731,11 +1627,8 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1771,9 +1664,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1808,9 +1698,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1845,9 +1732,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1882,9 +1766,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1919,9 +1800,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1953,11 +1831,8 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1993,9 +1868,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2030,9 +1902,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2067,9 +1936,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2101,11 +1967,8 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2138,11 +2001,8 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2175,11 +2035,8 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2212,11 +2069,8 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2252,9 +2106,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2286,11 +2137,8 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2323,11 +2171,8 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2363,9 +2208,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2400,9 +2242,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2437,9 +2276,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2474,9 +2310,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2508,11 +2341,8 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2548,9 +2378,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2585,9 +2412,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2622,9 +2446,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2659,9 +2480,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2696,9 +2514,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2733,9 +2548,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2770,9 +2582,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2807,9 +2616,6 @@
           <t>data map</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2844,9 +2650,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2878,11 +2681,8 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2915,11 +2715,8 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2952,11 +2749,8 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>data collection, data analysis, data gathering diagrams</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2992,9 +2786,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3029,9 +2820,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3066,9 +2854,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3103,9 +2888,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3140,9 +2922,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3174,11 +2953,8 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3214,9 +2990,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3251,9 +3024,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3285,11 +3055,8 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3325,9 +3092,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3362,9 +3126,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3399,9 +3160,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3436,9 +3194,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3473,9 +3228,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3510,9 +3262,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3547,9 +3296,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3584,9 +3330,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3621,9 +3364,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3658,9 +3398,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3695,9 +3432,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3732,9 +3466,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3769,9 +3500,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3806,9 +3534,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3843,9 +3568,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3880,9 +3602,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3914,11 +3633,8 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -3954,9 +3670,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3991,9 +3704,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4028,9 +3738,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4065,9 +3772,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4102,9 +3806,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4139,9 +3840,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4176,9 +3874,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4213,9 +3908,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4250,9 +3942,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4284,11 +3973,8 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -4321,11 +4007,8 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4361,9 +4044,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4395,11 +4075,8 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4432,11 +4109,8 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -4472,9 +4146,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4509,9 +4180,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4546,9 +4214,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4583,9 +4248,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4617,11 +4279,8 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -4657,9 +4316,6 @@
           <t>table</t>
         </is>
       </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4694,9 +4350,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4728,11 +4381,8 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>scatter plot</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
+          <t>scatter plot(s)</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -4768,9 +4418,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4802,11 +4449,8 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -4842,9 +4486,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4879,9 +4520,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4913,11 +4551,8 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -4953,9 +4588,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4990,9 +4622,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5027,9 +4656,6 @@
           <t>hierarchical diagram</t>
         </is>
       </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5064,9 +4690,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5101,9 +4724,6 @@
           <t>organizational chart</t>
         </is>
       </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5138,9 +4758,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5172,11 +4789,8 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>process diagram</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -5212,9 +4826,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5249,9 +4860,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5286,9 +4894,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5323,9 +4928,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5360,9 +4962,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5397,9 +4996,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5431,11 +5027,8 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -5471,9 +5064,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5505,11 +5095,8 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -5542,11 +5129,8 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
   </sheetData>
